--- a/matlab_attempt/Excel problems/Loops questions.xlsx
+++ b/matlab_attempt/Excel problems/Loops questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Documents\Github\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2D6D5BC-1FAF-4946-BFAC-6893A627FC9C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{453285D1-79A1-4926-994D-0D8414778130}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8625" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8625" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CG3.1.2" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="693">
   <si>
     <t>loop1</t>
   </si>
@@ -2329,25 +2329,108 @@
   </si>
   <si>
     <t>&lt;p&gt;
-What is the value of the variable $z/$ after the following code runs?
+What is the value of the variable $y/$ after the following code runs?
 &lt;/p&gt;
 &lt;p&gt;
-$$x = ARRAY;
-y = NUM2;
-z = NUM3;
-if x COMPARE y
-    z = NUM4;
+$$x = NUM1;
+y = NUM3;
+if ~(x COMPARE NUM2)
+    y = NUM4;
 end/$$
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>randsample(20,2)</t>
-  </si>
-  <si>
-    <t>ZVAL</t>
-  </si>
-  <si>
-    <t>randi(20,1,randi([3 6],1))</t>
+    <t>answer = NUM3; phrase = 'will not'; if ~(NUM1 COMPARE NUM2), answer = NUM4; phrase = 'will'; end</t>
+  </si>
+  <si>
+    <t>lower(convert_logical(~(NUM1 COMPARE NUM2)))</t>
+  </si>
+  <si>
+    <t>LOGICAL2</t>
+  </si>
+  <si>
+    <t>LOGICAL1</t>
+  </si>
+  <si>
+    <t>lower(convert_logical((NUM1 COMPARE NUM2)))</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The value for $y/$ is initially set to $NUM3/$, but it could be overwritten. The $if/$ block evaluates a logical statement and only executes the code inside it if the statement was true.
+&lt;/p&gt;
+&lt;br/&gt;
+&lt;p&gt;
+The logical statment here is $~(x COMPARE NUM2)/$. Given that $x = NUM1/$, then the inner statment $NUM1 COMPARE NUM2/$ evaluates as $LOGICAL1/$. The $~/$ symbol will then flip this back to $LOGICAL2/$. Therefore, the statement inside the $if/$ block PHRASE be executed, and the final value for $y/$ is $ANS/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>if_else5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+You need to write a piece of code that returns the &lt;strong&gt;absolute value&lt;/strong&gt; of a number (without the built in function $abs/$). For example, given $x = 5/$, the code should not change the value of $x/$, but given $x = -3/$, the value in $x/$ should be overwritten with a positive $3/$. Which piece of code below will do this for a single number stored in a variable named $x/$? 
+&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The are several possible ways to calculate the absolute value.&lt;/p&gt;
+&lt;br/&gt;
+&lt;p&gt;The possible answers here are:
+&lt;ul&gt;EXPLAIN&lt;/ul&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>[answers,is_correct,explain] = if_else5();</t>
+  </si>
+  <si>
+    <t>if_else6</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Say you have a loop that iterates LOOP_NUM times and takes a long time to run. You wish to keep track of the loop progress while it runs by printing out the loop variable. Your initially looks like:
+&lt;/p&gt;
+&lt;p&gt;
+$$for i = 1:LOOP_NUM
+    doSomething();
+    i
+end/$$
+&lt;/p&gt;
+&lt;p&gt;
+This works, but you don't want Matlab print out the loop variable for every single iteration. It would be better to only print out the loop variable every SCALE_STR iterations. After some research, you find the $mod/$ function and use it to only occasionally print out the loop variable. Your code now looks like:
+&lt;/p&gt;
+&lt;p&gt;
+$$for i = 1:NUM
+    doSomething();
+    if mod(i,SCALE_NUM)
+end/$$
+&lt;/p&gt;
+&lt;p&gt;
+How many times will the loop variable $i/$ be printed out?
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>NUM</t>
+  </si>
+  <si>
+    <t>randi(20,1)*100</t>
+  </si>
+  <si>
+    <t>SCALE_NUM</t>
+  </si>
+  <si>
+    <t>SCALE_IND</t>
+  </si>
+  <si>
+    <t>SCALE_IND*10</t>
+  </si>
+  <si>
+    <t>SCALE_STR</t>
+  </si>
+  <si>
+    <t>ex</t>
   </si>
 </sst>
 </file>
@@ -7218,21 +7301,22 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816A9A92-CC4D-4EAC-9F33-526257896018}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15" style="29" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="141" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>639</v>
       </c>
@@ -7242,11 +7326,8 @@
       <c r="C1" s="31" t="s">
         <v>638</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="29" t="s">
         <v>2</v>
       </c>
@@ -7256,10 +7337,8 @@
       <c r="D2" s="29" t="s">
         <v>634</v>
       </c>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
@@ -7269,10 +7348,8 @@
       <c r="D3" s="29" t="s">
         <v>636</v>
       </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
@@ -7282,10 +7359,8 @@
       <c r="D4" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
@@ -7295,10 +7370,8 @@
       <c r="D5" s="29" t="s">
         <v>643</v>
       </c>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
@@ -7308,10 +7381,8 @@
       <c r="D6" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="43" t="s">
         <v>2</v>
       </c>
@@ -7321,10 +7392,8 @@
       <c r="D7" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="43" t="s">
         <v>14</v>
       </c>
@@ -7338,40 +7407,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="29">
         <v>0.02</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-    </row>
-    <row r="12" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="48" t="s">
         <v>56</v>
@@ -7382,7 +7442,7 @@
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
     </row>
-    <row r="13" spans="1:5" ht="141" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>644</v>
       </c>
@@ -7392,11 +7452,8 @@
       <c r="C13" s="31" t="s">
         <v>645</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="29" t="s">
         <v>2</v>
       </c>
@@ -7406,10 +7463,8 @@
       <c r="D14" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="29" t="s">
         <v>2</v>
       </c>
@@ -7419,10 +7474,8 @@
       <c r="D15" s="29" t="s">
         <v>647</v>
       </c>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
         <v>2</v>
       </c>
@@ -7432,10 +7485,8 @@
       <c r="D16" s="29" t="s">
         <v>649</v>
       </c>
-      <c r="E16" s="29"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
         <v>2</v>
       </c>
@@ -7445,10 +7496,8 @@
       <c r="D17" s="29" t="s">
         <v>648</v>
       </c>
-      <c r="E17" s="29"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="29" t="s">
         <v>2</v>
       </c>
@@ -7458,10 +7507,8 @@
       <c r="D18" s="29" t="s">
         <v>650</v>
       </c>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="29" t="s">
         <v>2</v>
       </c>
@@ -7471,10 +7518,8 @@
       <c r="D19" s="29" t="s">
         <v>652</v>
       </c>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="43" t="s">
         <v>2</v>
       </c>
@@ -7484,10 +7529,8 @@
       <c r="D20" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="E20" s="29"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="43" t="s">
         <v>14</v>
       </c>
@@ -7501,40 +7544,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="29">
         <v>0.02</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="48" t="s">
         <v>56</v>
@@ -7545,7 +7579,7 @@
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
     </row>
-    <row r="26" spans="1:5" ht="153.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
         <v>633</v>
       </c>
@@ -7555,11 +7589,8 @@
       <c r="C26" s="31" t="s">
         <v>664</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="29" t="s">
         <v>2</v>
       </c>
@@ -7569,10 +7600,8 @@
       <c r="D27" s="29" t="s">
         <v>653</v>
       </c>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
         <v>2</v>
       </c>
@@ -7582,10 +7611,8 @@
       <c r="D28" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="29" t="s">
         <v>2</v>
       </c>
@@ -7595,10 +7622,8 @@
       <c r="D29" s="29" t="s">
         <v>660</v>
       </c>
-      <c r="E29" s="29"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="29" t="s">
         <v>2</v>
       </c>
@@ -7608,10 +7633,8 @@
       <c r="D30" s="29" t="s">
         <v>661</v>
       </c>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" s="29" t="s">
         <v>2</v>
       </c>
@@ -7621,10 +7644,8 @@
       <c r="D31" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="29" t="s">
         <v>2</v>
       </c>
@@ -7634,10 +7655,8 @@
       <c r="D32" s="29" t="s">
         <v>636</v>
       </c>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="29" t="s">
         <v>2</v>
       </c>
@@ -7647,10 +7666,8 @@
       <c r="D33" s="29" t="s">
         <v>666</v>
       </c>
-      <c r="E33" s="29"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="29" t="s">
         <v>2</v>
       </c>
@@ -7660,10 +7677,8 @@
       <c r="D34" s="29" t="s">
         <v>668</v>
       </c>
-      <c r="E34" s="29"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="s">
         <v>2</v>
       </c>
@@ -7673,10 +7688,8 @@
       <c r="D35" s="29" t="s">
         <v>665</v>
       </c>
-      <c r="E35" s="29"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="43" t="s">
         <v>2</v>
       </c>
@@ -7686,10 +7699,8 @@
       <c r="D36" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="29"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="43" t="s">
         <v>14</v>
       </c>
@@ -7703,51 +7714,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="29">
         <v>0.02</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="s">
         <v>669</v>
       </c>
       <c r="C40" s="29">
         <v>2</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-    </row>
-    <row r="42" spans="1:5" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="48" t="s">
         <v>56</v>
@@ -7758,7 +7757,7 @@
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
     </row>
-    <row r="43" spans="1:5" ht="153.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
         <v>671</v>
       </c>
@@ -7768,37 +7767,30 @@
       <c r="C43" s="31" t="s">
         <v>672</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>674</v>
+        <v>559</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>673</v>
-      </c>
-      <c r="E44" s="29"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>63</v>
+        <v>654</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>675</v>
-      </c>
-      <c r="E45" s="29"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="s">
         <v>2</v>
       </c>
@@ -7808,10 +7800,8 @@
       <c r="D46" s="29" t="s">
         <v>660</v>
       </c>
-      <c r="E46" s="29"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="s">
         <v>2</v>
       </c>
@@ -7821,10 +7811,8 @@
       <c r="D47" s="29" t="s">
         <v>661</v>
       </c>
-      <c r="E47" s="29"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="s">
         <v>2</v>
       </c>
@@ -7834,10 +7822,8 @@
       <c r="D48" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E48" s="29"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="29" t="s">
         <v>2</v>
       </c>
@@ -7847,10 +7833,8 @@
       <c r="D49" s="29" t="s">
         <v>636</v>
       </c>
-      <c r="E49" s="29"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B50" s="29" t="s">
         <v>2</v>
       </c>
@@ -7858,12 +7842,10 @@
         <v>11</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>666</v>
-      </c>
-      <c r="E50" s="29"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" s="29" t="s">
         <v>2</v>
       </c>
@@ -7873,106 +7855,403 @@
       <c r="D51" s="29" t="s">
         <v>668</v>
       </c>
-      <c r="E51" s="29"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>640</v>
+        <v>676</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>665</v>
-      </c>
-      <c r="E52" s="29"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="43" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>13</v>
+        <v>675</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="29"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" s="43" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="29" t="s">
         <v>663</v>
       </c>
-      <c r="E54" s="29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29" t="s">
+      <c r="E55" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C56" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C57" s="29">
         <v>0.02</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="29" t="s">
         <v>669</v>
       </c>
-      <c r="C57" s="29">
-        <v>2</v>
-      </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29" t="s">
+      <c r="C58" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-    </row>
-    <row r="59" spans="1:5" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="48" t="s">
+      <c r="C59" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="53" t="s">
-        <v>670</v>
-      </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
+      <c r="C60" s="53" t="s">
+        <v>678</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+    </row>
+    <row r="61" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B81" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="41"/>
+      <c r="B82" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="49">
+        <v>1</v>
+      </c>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+    </row>
+    <row r="83" spans="1:5" ht="369.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>692</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8030,8 +8309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FB2D8C-AEF4-487D-A299-132778AFFDA6}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:E66"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/matlab_attempt/Excel problems/Loops questions.xlsx
+++ b/matlab_attempt/Excel problems/Loops questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Documents\Github\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{453285D1-79A1-4926-994D-0D8414778130}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0637E9DD-2FE4-4751-A0A8-62540569CEDF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8625" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="738">
   <si>
     <t>loop1</t>
   </si>
@@ -2389,8 +2389,32 @@
     <t>if_else6</t>
   </si>
   <si>
+    <t>randi(20,1)*100</t>
+  </si>
+  <si>
+    <t>SCALE_NUM</t>
+  </si>
+  <si>
+    <t>SCALE_IND</t>
+  </si>
+  <si>
+    <t>SCALE_IND*10</t>
+  </si>
+  <si>
+    <t>SCALE_STR</t>
+  </si>
+  <si>
+    <t>extract({'ten','twenty','thirty','forty','fifty'},SCALE_IND)</t>
+  </si>
+  <si>
+    <t>LOOP_NUM</t>
+  </si>
+  <si>
+    <t>sum(mod(1:LOOP_NUM,SCALE_NUM)==0)</t>
+  </si>
+  <si>
     <t>&lt;p&gt;
-Say you have a loop that iterates LOOP_NUM times and takes a long time to run. You wish to keep track of the loop progress while it runs by printing out the loop variable. Your initially looks like:
+Say you have a loop that iterates LOOP_NUM times and takes a long time to run. You wish to keep track of the loop progress while it runs by printing out the loop variable. Your code initially looks like:
 &lt;/p&gt;
 &lt;p&gt;
 $$for i = 1:LOOP_NUM
@@ -2399,12 +2423,14 @@
 end/$$
 &lt;/p&gt;
 &lt;p&gt;
-This works, but you don't want Matlab print out the loop variable for every single iteration. It would be better to only print out the loop variable every SCALE_STR iterations. After some research, you find the $mod/$ function and use it to only occasionally print out the loop variable. Your code now looks like:
+This works, but you don't want Matlab print out the loop variable for every single iteration. It would be better to only print out the loop variable every SCALE_NUM iterations. After some research, you find the $mod/$ function and use it to only occasionally print out the loop variable. Your code now looks like:
 &lt;/p&gt;
 &lt;p&gt;
-$$for i = 1:NUM
+$$for i = 1:LOOP_NUM
     doSomething();
-    if mod(i,SCALE_NUM)
+    if mod(i,SCALE_NUM) == 0
+        i
+    end
 end/$$
 &lt;/p&gt;
 &lt;p&gt;
@@ -2412,25 +2438,218 @@
 &lt;/p&gt;</t>
   </si>
   <si>
-    <t>NUM</t>
-  </si>
-  <si>
-    <t>randi(20,1)*100</t>
-  </si>
-  <si>
-    <t>SCALE_NUM</t>
-  </si>
-  <si>
-    <t>SCALE_IND</t>
-  </si>
-  <si>
-    <t>SCALE_IND*10</t>
-  </si>
-  <si>
-    <t>SCALE_STR</t>
-  </si>
-  <si>
-    <t>ex</t>
+    <t>&lt;p&gt;
+The $mod/$ function calculates the modulus, so the remainder after division. The command $mod(i,SCALE_NUM)/$ will return the remainder from $i/SCALE_NUM/$. The value will be zero when $i/$ is evenly divided by $SCALE_NUM/$.
+&lt;/p&gt;
+&lt;br/&gt;
+&lt;p&gt;
+The statement $mod(i,SCALE_NUM) == 0/$ will therefore evaluate to $true/$ when $i/$ is evenly divided by $SCALE_NUM/$. This will print out the value of $i/$  every SCALE_NUM iterations.
+&lt;/p&gt;
+&lt;br/&gt;
+&lt;p&gt;
+Since the loop will iterate LOOP_NUM times and $i/$ will be printed out every SCALE_NUM iterations, then $i/$ will be printed out a total number of $ANS/$ times.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>if_else7</t>
+  </si>
+  <si>
+    <t>ARRAY_DISP</t>
+  </si>
+  <si>
+    <t>OTHER_CHOICE</t>
+  </si>
+  <si>
+    <t>COMPARE_CHOICE</t>
+  </si>
+  <si>
+    <t>IND_CHOICE</t>
+  </si>
+  <si>
+    <t>extract('&lt;&gt;',extract(IND_CHOICE,1))</t>
+  </si>
+  <si>
+    <t>extract('&lt;&gt;',extract(IND_CHOICE,2))</t>
+  </si>
+  <si>
+    <t>DISP1</t>
+  </si>
+  <si>
+    <t>['$$' mimic_array_output(ANS1,'XX') '/$$']</t>
+  </si>
+  <si>
+    <t>DISP2</t>
+  </si>
+  <si>
+    <t>DISP3</t>
+  </si>
+  <si>
+    <t>DISP4</t>
+  </si>
+  <si>
+    <t>['$$' mimic_array_output(ANS4,'XX') '/$$']</t>
+  </si>
+  <si>
+    <t>['$$' mimic_array_output(ANS3,'XX') '/$$']</t>
+  </si>
+  <si>
+    <t>['$$' mimic_array_output(ANS2,'XX') '/$$']</t>
+  </si>
+  <si>
+    <t>[randi([-50 50],1,randi([3 8],1)) -randi(50,1) randi(50,1)]</t>
+  </si>
+  <si>
+    <t>ARRAY_VALUES</t>
+  </si>
+  <si>
+    <t>store(ARRAY_VALUES,ARRAY_VALUES COMPARE_CHOICE 0,0)</t>
+  </si>
+  <si>
+    <t>store(ARRAY_VALUES,ARRAY_VALUES OTHER_CHOICE 0,0)</t>
+  </si>
+  <si>
+    <t>zeros(size(ARRAY_VALUES))</t>
+  </si>
+  <si>
+    <t>mimic_array_output(ARRAY_VALUES,'XX')</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You have an array named $XX/$ with the following values:
+&lt;/p&gt;
+&lt;p&gt;
+$$ARRAY_DISP/$$
+&lt;/p&gt;
+&lt;p&gt;
+What will be the values of $XX/$ after the following loop runs?
+&lt;/p&gt;
+&lt;p&gt;
+$$for i = 1:length(XX)
+    if XX(i) COMPARE_CHOICE 0
+        XX(i) = 0;
+    end
+end/$$
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>COMPARE_STRING</t>
+  </si>
+  <si>
+    <t>extract({'less than','greater than'},extract(IND_CHOICE,1))</t>
+  </si>
+  <si>
+    <t>if_else8</t>
+  </si>
+  <si>
+    <t>[correct,incorrect,problem_values,explain] = if_else8();</t>
+  </si>
+  <si>
+    <t>problem_values{5}</t>
+  </si>
+  <si>
+    <t>ASK_VALUE</t>
+  </si>
+  <si>
+    <t>ANS_VALUE</t>
+  </si>
+  <si>
+    <t>problem_values{2}</t>
+  </si>
+  <si>
+    <t>problem_values{3}</t>
+  </si>
+  <si>
+    <t>problem_values{4}</t>
+  </si>
+  <si>
+    <t>problem_values{1}</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+In a previous section you learned how to replace values in arrays with logical indexing. For example, you could replace the values in an array $XX/$ that are COMPARE_STRING ASK_VALUE with the value ANS_VALUE. This can be written in Matlab as:
+&lt;/p&gt;
+&lt;p&gt;
+$$XX(XX COMPARE_CHOICE ASK_VALUE) = ANS_VALUE;/$$
+&lt;/p&gt;
+&lt;p&gt;
+You could also perform this same operation with a $for/$ loop and an $if/$ statement. Wherever possible, you should keep using logical indexing because it is both faster to compute and more concise, but sometimes loops are necessary.
+&lt;/p&gt;
+&lt;p&gt;
+Which loop below will perform the same operation as the logical indexing statement above? 
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The correct answer here is:
+&lt;/p&gt;&lt;br/&gt;&lt;p&gt;
+ANS1
+&lt;/p&gt;&lt;br/&gt;&lt;p&gt;
+This is the only choice that performs the same operation as the logical indexing statement.
+&lt;/p&gt;&lt;br/&gt;&lt;p&gt;
+All the other possible answers have mistakes:
+&lt;ul&gt;EXPLAIN&lt;/ul&gt;
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>if_else9</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>randi([3 8],1,2)</t>
+  </si>
+  <si>
+    <t>array = randi(100,SIZE)-50; while all(all(sign(array)==1) ) || all(all(sign(array)==-1)), array = randi(100,SIZE)-50; end</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You have an array named $XX/$ with the following values:
+&lt;/p&gt;
+&lt;p&gt;
+$$ARRAY_DISP/$$
+&lt;/p&gt;
+&lt;p&gt;
+What will be the values of $XX/$ after the following loop runs?
+&lt;/p&gt;
+&lt;p&gt;
+$$for i = 1:size(XX,1)
+    for j = 1:size(XX,2)
+        if XX(i,j) COMPARE_CHOICE 0
+            XX(i,j) = 0;
+        end
+    end
+end/$$
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+This code snippet iterates through the values in the array $XX/$ and replaces them with $0/$ if the logical condition is met. The statement $XX(i) COMPARE_CHOICE 0/$ will be true whenever the value in $XX/$ is COMPARE_STRING zero.
+&lt;/p&gt;
+&lt;br/&gt;
+&lt;p&gt;
+Therefore, the values in $XX/$ after the loop finishes are:
+&lt;/p&gt;
+&lt;br/&gt;
+&lt;p&gt;
+DISP1
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+This code snippet iterates through the values in the array $XX/$ and replaces them with $0/$ if the logical condition is met. The statement $XX(i,j) COMPARE_CHOICE 0/$ will be true whenever the value in $XX/$ is COMPARE_STRING zero.
+&lt;/p&gt;
+&lt;br/&gt;
+&lt;p&gt;
+Therefore, the values in $XX/$ after the loop finishes are:
+&lt;/p&gt;
+&lt;br/&gt;
+&lt;p&gt;
+DISP1
+&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -5743,8 +5962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FBAB65-F0FE-478C-9BF2-E55DC11B7162}">
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7301,10 +7520,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816A9A92-CC4D-4EAC-9F33-526257896018}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8194,7 +8413,7 @@
       <c r="D82" s="41"/>
       <c r="E82" s="41"/>
     </row>
-    <row r="83" spans="1:5" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="395.25" x14ac:dyDescent="0.2">
       <c r="A83" s="29" t="s">
         <v>684</v>
       </c>
@@ -8202,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -8210,10 +8429,10 @@
         <v>2</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -8221,7 +8440,7 @@
         <v>2</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D85" s="29" t="s">
         <v>23</v>
@@ -8232,10 +8451,10 @@
         <v>2</v>
       </c>
       <c r="C86" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="D86" s="29" t="s">
         <v>688</v>
-      </c>
-      <c r="D86" s="29" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -8243,11 +8462,930 @@
         <v>2</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D87" s="29" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="29" t="s">
         <v>692</v>
       </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E89" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="29">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="C92" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="230.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="53" t="s">
+        <v>694</v>
+      </c>
+      <c r="D94" s="41"/>
+    </row>
+    <row r="95" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A95" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" s="29" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" s="29" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E111" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E112" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B113" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E113" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B114" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E114" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B115" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E115" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="50"/>
+      <c r="B116" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="50"/>
+      <c r="E116" s="50"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="50"/>
+      <c r="B117" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D117" s="50"/>
+      <c r="E117" s="50"/>
+    </row>
+    <row r="118" spans="1:6" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="41"/>
+      <c r="B118" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C118" s="53" t="s">
+        <v>736</v>
+      </c>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="41"/>
+    </row>
+    <row r="119" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A119" s="29" t="s">
+        <v>719</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B120" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B121" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B122" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>722</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B123" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>723</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B124" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B125" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="D125" s="29" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B126" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="D126" s="29" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="50"/>
+      <c r="B127" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D127" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E127" s="50"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="50"/>
+      <c r="B128" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E128" s="50"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="50"/>
+      <c r="B129" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="E129" s="50"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="50"/>
+      <c r="B130" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D130" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="E130" s="50"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="50"/>
+      <c r="B131" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D131" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E131" s="50"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="50"/>
+      <c r="B132" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E132" s="50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="50"/>
+      <c r="B133" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E133" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="50"/>
+      <c r="B134" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E134" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="50"/>
+      <c r="B135" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E135" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="50"/>
+      <c r="B136" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E136" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="50"/>
+      <c r="B137" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" s="50"/>
+      <c r="E137" s="50"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="50"/>
+      <c r="B138" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D138" s="50"/>
+      <c r="E138" s="50"/>
+    </row>
+    <row r="139" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A139" s="50"/>
+      <c r="B139" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" s="52" t="s">
+        <v>729</v>
+      </c>
+      <c r="D139" s="50"/>
+      <c r="E139" s="50"/>
+    </row>
+    <row r="140" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="41"/>
+      <c r="B140" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="49">
+        <v>1</v>
+      </c>
+      <c r="D140" s="41"/>
+      <c r="E140" s="41"/>
+    </row>
+    <row r="141" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="29" t="s">
+        <v>730</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="31" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>731</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="D145" s="29" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="D149" s="29" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="D150" s="29" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D151" s="29" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D152" s="29" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="D157" s="29" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="D159" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E159" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="D160" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E160" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="D161" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E161" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="D162" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E162" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="D163" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E163" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="50"/>
+      <c r="B164" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="50"/>
+      <c r="E164" s="50"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="50"/>
+      <c r="B165" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D165" s="50"/>
+      <c r="E165" s="50"/>
+    </row>
+    <row r="166" spans="1:5" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="41"/>
+      <c r="B166" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C166" s="53" t="s">
+        <v>737</v>
+      </c>
+      <c r="D166" s="41"/>
+      <c r="E166" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8309,8 +9447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FB2D8C-AEF4-487D-A299-132778AFFDA6}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:E41"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/matlab_attempt/Excel problems/Loops questions.xlsx
+++ b/matlab_attempt/Excel problems/Loops questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0637E9DD-2FE4-4751-A0A8-62540569CEDF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D6D4482E-C775-4D58-843E-7BD459EBB20E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8625" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="804">
   <si>
     <t>loop1</t>
   </si>
@@ -2649,6 +2649,281 @@
 &lt;br/&gt;
 &lt;p&gt;
 DISP1
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>if_else10</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+How many times will a number be printed out to the command line?
+&lt;/p&gt;
+&lt;p&gt;
+$$for i = ARRAY1
+    for j = ARRAY2
+        if i COMPARE j
+            i
+        end
+    end
+end/$$
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>ARRAY1</t>
+  </si>
+  <si>
+    <t>ARRAY2</t>
+  </si>
+  <si>
+    <t>mat2string(randi(100,1,extract(LEN,1)))</t>
+  </si>
+  <si>
+    <t>mat2string(randi(100,1,extract(LEN,2)))</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>extract(ARRAY1,1)</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>extract(ARRAY2,1)</t>
+  </si>
+  <si>
+    <t>lower(convert_logical(I1 COMPARE J1))</t>
+  </si>
+  <si>
+    <t>NUM_PRINT1</t>
+  </si>
+  <si>
+    <t>sum(I1 COMPARE ARRAY2)</t>
+  </si>
+  <si>
+    <t>if LOGICAL1, phrase1 = 'will'; else, phrase1 = 'will not'; end</t>
+  </si>
+  <si>
+    <t>PHRASE1</t>
+  </si>
+  <si>
+    <t>phrase1</t>
+  </si>
+  <si>
+    <t>count = 0; for i = ARRAY1, for j = ARRAY2, if i COMPARE j, count = count+1; end, end, end</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>extract(ARRAY1,2)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+This loop will run once for every pairing of values set to $i/$ and $j/$. A value will be printed out whenever $i COMPARE j/$.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+During the first iteration of the outer loop $i = I1/$, and the inner loop will iterate through each value of $j = ARRAY2/$. The first logical statement is therefore $I1 COMPARE J1/$, which returns $LOGICAL1/$, so a value PHRASE1 be printed out. A total of NUM_PRINT1 values will be printed out for this inner loop. The value of $i/$ will then be set to $I2/$ and the inner loop will repeat.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+After the entire nested loop finishes, a total of ANS values will be printed out, so the answer is $ANS/$.
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>randi([2 4],1,2)</t>
+  </si>
+  <si>
+    <t>if_else11</t>
+  </si>
+  <si>
+    <t>array = randi(200,SIZE)-50; while all(all(array&gt;= 0) ) || all(all(array&lt;=100)), array = randi(200,SIZE)-50; end</t>
+  </si>
+  <si>
+    <t>store(ARRAY_VALUES,ARRAY_VALUES &lt; 0,0)</t>
+  </si>
+  <si>
+    <t>store(ARRAY_VALUES,ARRAY_VALUES &gt; 100,100)</t>
+  </si>
+  <si>
+    <t>array(array&lt;0) = 0; array(array&gt;100) = 100;</t>
+  </si>
+  <si>
+    <t>ANS0</t>
+  </si>
+  <si>
+    <t>DISP0</t>
+  </si>
+  <si>
+    <t>['$$' mimic_array_output(ANS0,'XX') '/$$']</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+This code snippet iterates through the values in the array $XX/$. It replaces negative values with $0/$ and values greater than 100 with $100/$. The if-else code block has an $if/$ statement and an $ifelse/$ statement that allows two different logical statements to be evaluated.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore, the values in $XX/$ after the loop finishes are:
+&lt;/p&gt;
+&lt;br/&gt;
+&lt;p&gt;
+DISP0
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You have an array named $XX/$ with the following values:
+&lt;/p&gt;
+&lt;p&gt;
+$$ARRAY_DISP/$$
+&lt;/p&gt;
+&lt;p&gt;
+What will be the values of $XX/$ after the following loop runs?
+&lt;/p&gt;
+&lt;p&gt;
+$$for i = 1:size(XX,1)
+    for j = 1:size(XX,2)
+        if XX(i,j) &gt; 100
+            XX(i,j) = 100;
+        elseif XX(i,j) &lt; 0
+            XX(i,j) = 0;
+        end
+    end
+end/$$
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>if_else12</t>
+  </si>
+  <si>
+    <t>MAX_VAL</t>
+  </si>
+  <si>
+    <t>randi(10,1)*10</t>
+  </si>
+  <si>
+    <t>TEST_VAL</t>
+  </si>
+  <si>
+    <t>L15, L7</t>
+  </si>
+  <si>
+    <t>randi([2 MAX_VAL-1],1)</t>
+  </si>
+  <si>
+    <t>L16, L7</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Let $XX/$ be a random integer from $1/$ to $MAX_VAL/$ and let $YY = 0/$. What is the probability that $YY/$ will be equal to $1/$ after the following code runs?
+&lt;/p&gt;
+&lt;p&gt;
+$$if XX COMPARE TEST_VAL
+    YY = 1;
+end/$$
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>NUM_TRUE</t>
+  </si>
+  <si>
+    <t>NUM_TRUE/MAX_VAL</t>
+  </si>
+  <si>
+    <t>sum(1:MAX_VAL COMPARE TEST_VAL)</t>
+  </si>
+  <si>
+    <t>sprintf('%.2f',NUM_TRUE/MAX_VAL)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+To get the probability of $YY = 1/$, you need to calculate how often the statement $XX COMPARE TEST_VAL/$ evaluates as $true/$. Since $XX/$ is an integer from $1/$ to $MAX_VAL/$, then this will occur $NUM_TRUE/$ times.  
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore the probability of $YY = 1/$ is $NUM_TRUE/MAX_VAL = STR/$
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>if_else13</t>
+  </si>
+  <si>
+    <t>COMPARE_IND</t>
+  </si>
+  <si>
+    <t>COMPARE1</t>
+  </si>
+  <si>
+    <t>COMPARE2</t>
+  </si>
+  <si>
+    <t>randsample(4,2)</t>
+  </si>
+  <si>
+    <t>extract({'&lt;','&gt;','&lt;=','&gt;='},2)</t>
+  </si>
+  <si>
+    <t>extract({'&lt;','&gt;','&lt;=','&gt;='},1)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+Let $XX/$ be a random integer from $1/$ to $MAX_VAL/$ and let $YY = 0/$. What is the probability that $YY/$ will be equal to $2/$ after the following code runs?
+&lt;/p&gt;
+&lt;p&gt;
+$$if XX COMPARE1 TEST_VAL1
+    YY = 1;
+elseif XX COMPARE2 TEST_VAL2
+    YY = 2;
+end/$$
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>NUM_TRUE1</t>
+  </si>
+  <si>
+    <t>NUM_TRUE2</t>
+  </si>
+  <si>
+    <t>1:MAX_VAL COMPARE1 TEST_VAL1</t>
+  </si>
+  <si>
+    <t>1:MAX_VAL COMPARE2 TEST_VAL2</t>
+  </si>
+  <si>
+    <t>sum(~LOGICAL1 &amp; LOGICAL2)</t>
+  </si>
+  <si>
+    <t>NUM_TRUE2/MAX_VAL</t>
+  </si>
+  <si>
+    <t>sprintf('%.2f',NUM_TRUE2/MAX_VAL)</t>
+  </si>
+  <si>
+    <t>randsample(MAX_VAL,2)</t>
+  </si>
+  <si>
+    <t>TEST_VAL2</t>
+  </si>
+  <si>
+    <t>TEST_VAL1</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>sum(~LOGICAL1)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+The statement $XX COMPARE1 TEST_VAL1/$ will be evaluated first because it is directly after the $if/$ keyword. The second statement $XX COMPARE2 TEST_VAL2/$ will only be evaluated if the first statement is $false/$ since it is after the $elseif/$ keyword.
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+The variable $XX/$ can be any integer from $1/$ to $MAX_VAL/$ so the first statement will be $false/$ a total of $NUM_TRUE1/$ times. Of these values, the second statement is  
+   To get the probability of $YY = 2/$, you need to calculate how often the statement $XX COMPARE2 TEST_VAL2/$ evaluates as $true/$. This will only occur when $XX COMPARE1 TEST_VAL1/$ is $false/$ since  statement will be evaluated first. Since $XX/$ is an integer from $1/$ to $MAX_VAL/$, then this will occur $NUM_TRUE/$ times.  
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+Therefore the probability of $YY = 1/$ is $NUM_TRUE/MAX_VAL = STR/$
 &lt;/p&gt;</t>
   </si>
 </sst>
@@ -5962,7 +6237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FBAB65-F0FE-478C-9BF2-E55DC11B7162}">
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
@@ -7520,10 +7795,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816A9A92-CC4D-4EAC-9F33-526257896018}">
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9292,7 +9567,7 @@
         <v>702</v>
       </c>
       <c r="D159" s="29" t="s">
-        <v>663</v>
+        <v>774</v>
       </c>
       <c r="E159" s="29" t="b">
         <v>1</v>
@@ -9306,7 +9581,7 @@
         <v>704</v>
       </c>
       <c r="D160" s="29" t="s">
-        <v>663</v>
+        <v>774</v>
       </c>
       <c r="E160" s="29" t="b">
         <v>0</v>
@@ -9320,7 +9595,7 @@
         <v>705</v>
       </c>
       <c r="D161" s="29" t="s">
-        <v>663</v>
+        <v>774</v>
       </c>
       <c r="E161" s="29" t="b">
         <v>0</v>
@@ -9334,7 +9609,7 @@
         <v>706</v>
       </c>
       <c r="D162" s="29" t="s">
-        <v>663</v>
+        <v>774</v>
       </c>
       <c r="E162" s="29" t="b">
         <v>0</v>
@@ -9348,7 +9623,7 @@
         <v>579</v>
       </c>
       <c r="D163" s="29" t="s">
-        <v>663</v>
+        <v>774</v>
       </c>
       <c r="E163" s="29" t="b">
         <v>0</v>
@@ -9386,6 +9661,897 @@
       </c>
       <c r="D166" s="41"/>
       <c r="E166" s="41"/>
+    </row>
+    <row r="167" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="29" t="s">
+        <v>738</v>
+      </c>
+      <c r="B167" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="31" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="29" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="29" t="s">
+        <v>740</v>
+      </c>
+      <c r="D169" s="29" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="D170" s="29" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="50" t="s">
+        <v>635</v>
+      </c>
+      <c r="D171" s="50" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="29" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="29" t="s">
+        <v>745</v>
+      </c>
+      <c r="D173" s="29" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B174" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="29" t="s">
+        <v>756</v>
+      </c>
+      <c r="D174" s="29" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" s="29" t="s">
+        <v>747</v>
+      </c>
+      <c r="D175" s="29" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B176" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="D176" s="29" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B177" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="29" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="D178" s="29" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="29" t="s">
+        <v>750</v>
+      </c>
+      <c r="D179" s="29" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" s="29" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" s="29" t="s">
+        <v>774</v>
+      </c>
+      <c r="E181" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B182" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="29">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B184" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="217.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="41"/>
+      <c r="B185" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="53" t="s">
+        <v>758</v>
+      </c>
+      <c r="D185" s="41"/>
+      <c r="E185" s="41"/>
+    </row>
+    <row r="186" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="A186" s="29" t="s">
+        <v>760</v>
+      </c>
+      <c r="B186" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="31" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B187" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B188" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="29" t="s">
+        <v>731</v>
+      </c>
+      <c r="D188" s="29" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="29" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B190" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="D190" s="29" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="D191" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="D192" s="29" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B193" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="29" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B194" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="D194" s="29" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B195" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D195" s="29" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D196" s="29" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B197" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D197" s="29" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="D198" s="29" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B199" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="D199" s="29" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B200" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="D200" s="29" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B201" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="D201" s="29" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B202" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="D202" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="E202" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B203" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="D203" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="E203" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B204" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="D204" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="E204" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B205" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="D205" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="E205" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="E206" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="50"/>
+      <c r="B207" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D207" s="50"/>
+      <c r="E207" s="50"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="50"/>
+      <c r="B208" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C208" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D208" s="50"/>
+      <c r="E208" s="50"/>
+    </row>
+    <row r="209" spans="1:5" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="41"/>
+      <c r="B209" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C209" s="53" t="s">
+        <v>768</v>
+      </c>
+      <c r="D209" s="41"/>
+      <c r="E209" s="41"/>
+    </row>
+    <row r="210" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A210" s="29" t="s">
+        <v>770</v>
+      </c>
+      <c r="B210" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="31" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B211" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D211" s="29" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D212" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B213" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D213" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B214" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C214" s="29" t="s">
+        <v>771</v>
+      </c>
+      <c r="D214" s="29" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B215" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="D215" s="29" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B216" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C216" s="50" t="s">
+        <v>635</v>
+      </c>
+      <c r="D216" s="50" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C217" s="50" t="s">
+        <v>778</v>
+      </c>
+      <c r="D217" s="50" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B218" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="29" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B219" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="29" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B220" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E220" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B221" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B222" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C222" s="29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B223" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C223" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C224" s="53" t="s">
+        <v>782</v>
+      </c>
+      <c r="D224" s="41"/>
+      <c r="E224" s="41"/>
+    </row>
+    <row r="225" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A225" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="B225" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" s="31" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B226" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D226" s="29" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B227" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C227" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D227" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B228" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D228" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B229" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C229" s="29" t="s">
+        <v>771</v>
+      </c>
+      <c r="D229" s="29" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B230" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="D230" s="29" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B231" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="29" t="s">
+        <v>800</v>
+      </c>
+      <c r="D231" s="29" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B232" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" s="29" t="s">
+        <v>799</v>
+      </c>
+      <c r="D232" s="29" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="50"/>
+      <c r="B233" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" s="50" t="s">
+        <v>784</v>
+      </c>
+      <c r="D233" s="50" t="s">
+        <v>787</v>
+      </c>
+      <c r="E233" s="50"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="50"/>
+      <c r="B234" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="50" t="s">
+        <v>785</v>
+      </c>
+      <c r="D234" s="50" t="s">
+        <v>789</v>
+      </c>
+      <c r="E234" s="50"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="50"/>
+      <c r="B235" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C235" s="50" t="s">
+        <v>786</v>
+      </c>
+      <c r="D235" s="50" t="s">
+        <v>788</v>
+      </c>
+      <c r="E235" s="50"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="50"/>
+      <c r="B236" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C236" s="50" t="s">
+        <v>676</v>
+      </c>
+      <c r="D236" s="50" t="s">
+        <v>793</v>
+      </c>
+      <c r="E236" s="50"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="50"/>
+      <c r="B237" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C237" s="50" t="s">
+        <v>675</v>
+      </c>
+      <c r="D237" s="50" t="s">
+        <v>794</v>
+      </c>
+      <c r="E237" s="50"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="50"/>
+      <c r="B238" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238" s="50" t="s">
+        <v>791</v>
+      </c>
+      <c r="D238" s="50" t="s">
+        <v>802</v>
+      </c>
+      <c r="E238" s="50"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="50"/>
+      <c r="B239" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C239" s="50" t="s">
+        <v>792</v>
+      </c>
+      <c r="D239" s="50" t="s">
+        <v>795</v>
+      </c>
+      <c r="E239" s="50"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B240" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C240" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" s="29" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="50"/>
+      <c r="B241" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C241" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="29" t="s">
+        <v>797</v>
+      </c>
+      <c r="E241" s="50"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B242" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C242" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242" s="29" t="s">
+        <v>801</v>
+      </c>
+      <c r="E242" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B243" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B244" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" s="29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B245" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C245" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="281.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C246" s="53" t="s">
+        <v>803</v>
+      </c>
+      <c r="D246" s="41"/>
+      <c r="E246" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab_attempt/Excel problems/Loops questions.xlsx
+++ b/matlab_attempt/Excel problems/Loops questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D6D4482E-C775-4D58-843E-7BD459EBB20E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D3B6BBB-D44C-43E0-823F-A1D02A347A06}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8625" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="806">
   <si>
     <t>loop1</t>
   </si>
@@ -2924,6 +2924,23 @@
 &lt;/p&gt;&lt;br/&gt;
 &lt;p&gt;
 Therefore the probability of $YY = 1/$ is $NUM_TRUE/MAX_VAL = STR/$
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>if_else14</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+In a previous section you learned how to replace values in arrays with logical indexing. For example, you could replace the values in an array $XX/$ that are COMPARE_STRING ASK_VALUE with the value ANS_VALUE. This can be written in Matlab as:
+&lt;/p&gt;
+&lt;p&gt;
+$$XX(XX COMPARE_CHOICE ASK_VALUE) = ANS_VALUE;/$$
+&lt;/p&gt;
+&lt;p&gt;
+You could also perform this same operation with a $for/$ loop and an $if/$ statement. Logical indexing is usually faster and more concise, but sometimes loops are necessary.
+&lt;/p&gt;
+&lt;p&gt;
+Download &lt;a href="/static/if_else13
 &lt;/p&gt;</t>
   </si>
 </sst>
@@ -7795,10 +7812,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816A9A92-CC4D-4EAC-9F33-526257896018}">
-  <dimension ref="A1:F246"/>
+  <dimension ref="A1:F268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C246" sqref="C246"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10552,6 +10569,278 @@
       </c>
       <c r="D246" s="41"/>
       <c r="E246" s="41"/>
+    </row>
+    <row r="247" spans="1:5" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A247" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="B247" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" s="31" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B248" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C248" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="29" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B249" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C249" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D249" s="29" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B250" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C250" s="29" t="s">
+        <v>722</v>
+      </c>
+      <c r="D250" s="29" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B251" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C251" s="29" t="s">
+        <v>723</v>
+      </c>
+      <c r="D251" s="29" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B252" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="D252" s="29" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B253" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="D253" s="29" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B254" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C254" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="D254" s="29" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="50"/>
+      <c r="B255" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C255" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D255" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E255" s="50"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="50"/>
+      <c r="B256" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C256" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D256" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E256" s="50"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="50"/>
+      <c r="B257" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C257" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D257" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="E257" s="50"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="50"/>
+      <c r="B258" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C258" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D258" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="E258" s="50"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="50"/>
+      <c r="B259" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C259" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D259" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E259" s="50"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="50"/>
+      <c r="B260" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D260" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E260" s="50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="50"/>
+      <c r="B261" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C261" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D261" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E261" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="50"/>
+      <c r="B262" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D262" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E262" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="50"/>
+      <c r="B263" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C263" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D263" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E263" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="50"/>
+      <c r="B264" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D264" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E264" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="50"/>
+      <c r="B265" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D265" s="50"/>
+      <c r="E265" s="50"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="50"/>
+      <c r="B266" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D266" s="50"/>
+      <c r="E266" s="50"/>
+    </row>
+    <row r="267" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A267" s="50"/>
+      <c r="B267" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C267" s="52" t="s">
+        <v>729</v>
+      </c>
+      <c r="D267" s="50"/>
+      <c r="E267" s="50"/>
+    </row>
+    <row r="268" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="41"/>
+      <c r="B268" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" s="49">
+        <v>1</v>
+      </c>
+      <c r="D268" s="41"/>
+      <c r="E268" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab_attempt/Excel problems/Loops questions.xlsx
+++ b/matlab_attempt/Excel problems/Loops questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Documents\Github\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D3B6BBB-D44C-43E0-823F-A1D02A347A06}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D4F27C3B-3740-4E40-B158-7BED3E96C21C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8625" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="827">
   <si>
     <t>loop1</t>
   </si>
@@ -2930,6 +2930,15 @@
     <t>if_else14</t>
   </si>
   <si>
+    <t>checksum_value</t>
+  </si>
+  <si>
+    <t>[checksum_value,problem_values,explain] = if_else14(myArray);</t>
+  </si>
+  <si>
+    <t>load('Data\col_array1','myArray');</t>
+  </si>
+  <si>
     <t>&lt;p&gt;
 In a previous section you learned how to replace values in arrays with logical indexing. For example, you could replace the values in an array $XX/$ that are COMPARE_STRING ASK_VALUE with the value ANS_VALUE. This can be written in Matlab as:
 &lt;/p&gt;
@@ -2940,8 +2949,98 @@
 You could also perform this same operation with a $for/$ loop and an $if/$ statement. Logical indexing is usually faster and more concise, but sometimes loops are necessary.
 &lt;/p&gt;
 &lt;p&gt;
-Download &lt;a href="/static/if_else13
+To answer this question, download &lt;a href="/static/col_array1.mat"&gt;col_array1.mat&lt;/a&gt; and &lt;a href="/static/replaceValues.m"&gt;replaceValues.m&lt;/a&gt;. Open Matlab to the folder containing these files. If you are using Matlab Online you will need to upload these files.
+&lt;/p&gt;
+&lt;p&gt;
+Open replaceValues.m in the editor. Look for the $for/$ loop and read the commented instructions inside the loop. You need to write an $if/$ block that performs the same action as the logical indexing step above, i.e. replace the values in an array that are COMPARE_STRING $ASK_VALUE/$ with $ANS_VALUE/$.
+&lt;/p&gt;
+&lt;p&gt;
+Once you have finished writing the loop, go to the Command Window and type the following two lines:
+&lt;/p&gt;
+&lt;p&gt;
+$$load col_array1.mat
+replaceValues(myArray)/$$
+&lt;/p&gt;
+&lt;p&gt;
+An integer should be printed out to the Command Window. Copy and paste that integer as your answer below.
 &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>if_else15</t>
+  </si>
+  <si>
+    <t>randsample(20,6)</t>
+  </si>
+  <si>
+    <t>NUM5</t>
+  </si>
+  <si>
+    <t>NUM6</t>
+  </si>
+  <si>
+    <t>extract(VALUES,6)</t>
+  </si>
+  <si>
+    <t>extract(VALUES,5)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+What is the value of the variable $y/$ after the following code runs?
+&lt;/p&gt;
+&lt;p&gt;
+$$x = NUM1;
+y = NUM2;
+if x COMPARE NUM3
+    y = NUM4;
+elseif x COMPARE NUM5
+    y = NUM6;
+end/$$
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>answer = NUM2; if NUM1 COMPARE NUM3, answer = NUM4; elseif NUM1 COMPARE NUM5, answer = NUM6; end</t>
+  </si>
+  <si>
+    <t>PHRASE2</t>
+  </si>
+  <si>
+    <t>lower(convert_logical(NUM1 COMPARE NUM3))</t>
+  </si>
+  <si>
+    <t>lower(convert_logical(NUM1 COMPARE NUM5))</t>
+  </si>
+  <si>
+    <t>PHRASE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;
+The value for $y/$ is initially set to $NUM2/$, but it could be overwritten. The code block with $if/$ and $elseif/$ statements will evalute logical statements and possible execute the code inside them, thereby overwriting the value of $y/$.
+&lt;/p&gt;
+&lt;br/&gt;
+&lt;p&gt;
+The first logical statment here is $x COMPARE NUM3/$. Given that $x = NUM1/$, then the statement $NUM1 COMPARE NUM3/$ evaluates as $LOGICAL1/$. Therefore, the statement inside the $if/$ block PHRASE1.
+&lt;/p&gt;
+&lt;br/&gt;
+&lt;p&gt;
+The second logical statment here is $x COMPARE NUM5/$. However, this statment is only executed if the first statement was $false/$. Since this is PHRASE2.
+&lt;/p&gt;
+PHRASE3
+</t>
+  </si>
+  <si>
+    <t>phrase2</t>
+  </si>
+  <si>
+    <t>phrase3</t>
+  </si>
+  <si>
+    <t>phrase1 = 'will not be executed'; if answer==NUM4, phrase1 = 'will be executed, and the value of $y/$ will become $NUM4/$'; end</t>
+  </si>
+  <si>
+    <t>phrase2 = 'is &lt;em&gt;not&lt;/em&gt; the case here, the value of $y/$ will remain $NUM4/$, and the the final value of $y/$ is $NUM4/$'; if answer~=NUM4, phrase2 = 'is the case here, then the final value of $y/$ &lt;em&gt;will&lt;/em&gt; depend on this second logical statement. The value of $x/$ is still $NUM1/$, so the statement $NUM1 COMPARE NUM5/$ evaluates as $LOGICAL2/$'; end</t>
+  </si>
+  <si>
+    <t>phrase3 = ''; if answer==NUM2, phrase3 = '&lt;br/&gt;&lt;p&gt;Since both logical statements evaluated as $false/$, the value of $y/$ will not be changed from it''s initial declaration of $y = NUM2/$. Therefore, the answer is $NUM2/$.&lt;/p&gt;'; elseif answer==NUM6; phrase3 = '&lt;br/&gt;&lt;p&gt;Since the first statement was $false/$ but the second statement was $true/$, the final value of $y/$ will be $NUM6/$.&lt;/p&gt;'; end</t>
   </si>
 </sst>
 </file>
@@ -7812,10 +7911,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816A9A92-CC4D-4EAC-9F33-526257896018}">
-  <dimension ref="A1:F268"/>
+  <dimension ref="A1:F286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10570,7 +10669,7 @@
       <c r="D246" s="41"/>
       <c r="E246" s="41"/>
     </row>
-    <row r="247" spans="1:5" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A247" s="29" t="s">
         <v>804</v>
       </c>
@@ -10578,18 +10677,18 @@
         <v>1</v>
       </c>
       <c r="C247" s="31" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B248" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C248" s="29" t="s">
+      <c r="C248" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="29" t="s">
-        <v>720</v>
+        <v>807</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -10597,10 +10696,10 @@
         <v>2</v>
       </c>
       <c r="C249" s="29" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D249" s="29" t="s">
-        <v>727</v>
+        <v>806</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -10608,10 +10707,10 @@
         <v>2</v>
       </c>
       <c r="C250" s="29" t="s">
-        <v>722</v>
+        <v>3</v>
       </c>
       <c r="D250" s="29" t="s">
-        <v>724</v>
+        <v>523</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -10619,10 +10718,10 @@
         <v>2</v>
       </c>
       <c r="C251" s="29" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D251" s="29" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -10630,10 +10729,10 @@
         <v>2</v>
       </c>
       <c r="C252" s="29" t="s">
-        <v>698</v>
+        <v>723</v>
       </c>
       <c r="D252" s="29" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -10641,10 +10740,10 @@
         <v>2</v>
       </c>
       <c r="C253" s="29" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="D253" s="29" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -10652,24 +10751,22 @@
         <v>2</v>
       </c>
       <c r="C254" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="D254" s="29" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B255" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C255" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="D254" s="29" t="s">
+      <c r="D255" s="29" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="50"/>
-      <c r="B255" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C255" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D255" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="E255" s="50"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="50"/>
@@ -10677,170 +10774,340 @@
         <v>2</v>
       </c>
       <c r="C256" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D256" s="50" t="s">
-        <v>207</v>
+        <v>805</v>
       </c>
       <c r="E256" s="50"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="50"/>
       <c r="B257" s="43" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C257" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D257" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="E257" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="D257" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="E257" s="50" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="50"/>
-      <c r="B258" s="43" t="s">
-        <v>2</v>
+      <c r="B258" s="50" t="s">
+        <v>15</v>
       </c>
       <c r="C258" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D258" s="50" t="s">
-        <v>209</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D258" s="50"/>
       <c r="E258" s="50"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="50"/>
-      <c r="B259" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C259" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="D259" s="50" t="s">
-        <v>210</v>
-      </c>
+      <c r="B259" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C259" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="D259" s="50"/>
       <c r="E259" s="50"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="50"/>
-      <c r="B260" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C260" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D260" s="29" t="s">
-        <v>663</v>
-      </c>
-      <c r="E260" s="50" t="b">
-        <v>1</v>
-      </c>
+      <c r="B260" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D260" s="50"/>
+      <c r="E260" s="50"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="50"/>
-      <c r="B261" s="43" t="s">
+      <c r="B261" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C261" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="D261" s="50"/>
+      <c r="E261" s="50"/>
+    </row>
+    <row r="262" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="41"/>
+      <c r="B262" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C262" s="49">
+        <v>1</v>
+      </c>
+      <c r="D262" s="41"/>
+      <c r="E262" s="41"/>
+    </row>
+    <row r="263" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A263" s="29" t="s">
+        <v>809</v>
+      </c>
+      <c r="B263" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="31" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B264" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C264" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="D264" s="29" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B265" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C265" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="D265" s="29" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B266" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C266" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="D266" s="29" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B267" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C267" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="D267" s="29" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B268" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C268" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="D268" s="29" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B269" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C269" s="29" t="s">
+        <v>811</v>
+      </c>
+      <c r="D269" s="29" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B270" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C270" s="29" t="s">
+        <v>812</v>
+      </c>
+      <c r="D270" s="29" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B271" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C271" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="D271" s="29" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B272" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C272" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="D272" s="29" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B273" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C273" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="D273" s="29" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B274" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C274" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" s="29" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B275" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C275" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275" s="29" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B276" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C276" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D276" s="29" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B277" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C277" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D277" s="29" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B278" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C278" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="D278" s="29" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B279" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C279" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="D279" s="29" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B280" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C280" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="D280" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B281" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C281" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C261" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D261" s="29" t="s">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B282" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C282" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D282" s="29" t="s">
         <v>663</v>
       </c>
-      <c r="E261" s="50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="50"/>
-      <c r="B262" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C262" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D262" s="29" t="s">
-        <v>663</v>
-      </c>
-      <c r="E262" s="50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="50"/>
-      <c r="B263" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C263" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D263" s="29" t="s">
-        <v>663</v>
-      </c>
-      <c r="E263" s="50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="50"/>
-      <c r="B264" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C264" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="D264" s="29" t="s">
-        <v>663</v>
-      </c>
-      <c r="E264" s="50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="50"/>
-      <c r="B265" s="50" t="s">
+      <c r="E282" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B283" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C265" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D265" s="50"/>
-      <c r="E265" s="50"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="50"/>
-      <c r="B266" s="50" t="s">
+      <c r="C283" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B284" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C284" s="29">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B285" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C266" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D266" s="50"/>
-      <c r="E266" s="50"/>
-    </row>
-    <row r="267" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A267" s="50"/>
-      <c r="B267" s="51" t="s">
+      <c r="C285" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="268.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="41"/>
+      <c r="B286" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C267" s="52" t="s">
-        <v>729</v>
-      </c>
-      <c r="D267" s="50"/>
-      <c r="E267" s="50"/>
-    </row>
-    <row r="268" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="41"/>
-      <c r="B268" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C268" s="49">
-        <v>1</v>
-      </c>
-      <c r="D268" s="41"/>
-      <c r="E268" s="41"/>
+      <c r="C286" s="53" t="s">
+        <v>821</v>
+      </c>
+      <c r="D286" s="41"/>
+      <c r="E286" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab_attempt/Excel problems/Loops questions.xlsx
+++ b/matlab_attempt/Excel problems/Loops questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C8A9E3D-74FD-4E67-A3D4-8F9F9D60DC82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0154D0EE-1A69-457C-9C28-9563DD0DA0A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8625" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8625" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CG3.1.2" sheetId="1" r:id="rId1"/>
@@ -4895,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:D12"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5214,7 +5214,7 @@
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
     </row>
-    <row r="26" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>217</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
     </row>
-    <row r="48" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>225</v>
       </c>
@@ -5657,7 +5657,7 @@
       <c r="D60" s="32"/>
       <c r="E60" s="32"/>
     </row>
-    <row r="61" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
       <c r="B61" s="32" t="s">
         <v>56</v>
@@ -5690,7 +5690,7 @@
       <c r="D63" s="37"/>
       <c r="E63" s="37"/>
     </row>
-    <row r="64" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>235</v>
       </c>
@@ -5829,7 +5829,7 @@
       <c r="D74" s="32"/>
       <c r="E74" s="32"/>
     </row>
-    <row r="75" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A75" s="29"/>
       <c r="B75" s="32" t="s">
         <v>56</v>
@@ -5862,7 +5862,7 @@
       <c r="D77" s="37"/>
       <c r="E77" s="37"/>
     </row>
-    <row r="78" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
         <v>239</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="D96" s="40"/>
       <c r="E96" s="29"/>
     </row>
-    <row r="97" spans="1:5" ht="230.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="141" x14ac:dyDescent="0.25">
       <c r="A97" s="29"/>
       <c r="B97" s="30" t="s">
         <v>56</v>
@@ -6253,7 +6253,7 @@
       <c r="D108" s="32"/>
       <c r="E108" s="32"/>
     </row>
-    <row r="109" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A109" s="29"/>
       <c r="B109" s="32" t="s">
         <v>56</v>
@@ -6399,7 +6399,7 @@
       <c r="D120" s="32"/>
       <c r="E120" s="32"/>
     </row>
-    <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A121" s="29"/>
       <c r="B121" s="32" t="s">
         <v>56</v>
@@ -6432,7 +6432,7 @@
       <c r="D123" s="37"/>
       <c r="E123" s="37"/>
     </row>
-    <row r="124" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
         <v>379</v>
       </c>
@@ -6597,7 +6597,7 @@
       <c r="D136" s="32"/>
       <c r="E136" s="32"/>
     </row>
-    <row r="137" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A137" s="29"/>
       <c r="B137" s="32" t="s">
         <v>56</v>
@@ -6630,7 +6630,7 @@
       <c r="D139" s="37"/>
       <c r="E139" s="37"/>
     </row>
-    <row r="140" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A140" s="29" t="s">
         <v>380</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="D150" s="32"/>
       <c r="E150" s="32"/>
     </row>
-    <row r="151" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A151" s="29"/>
       <c r="B151" s="32" t="s">
         <v>56</v>
@@ -7701,7 +7701,7 @@
   <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9260,8 +9260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816A9A92-CC4D-4EAC-9F33-526257896018}">
   <dimension ref="A1:F289"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="D286" sqref="D286"/>
+    <sheetView topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12503,8 +12503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206DD3AE-D6FC-478B-8831-5BD0D0F4AD45}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14129,7 +14129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47CE8F2-8180-4055-9085-EE64839F2FDC}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -14715,7 +14715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198F0933-8C52-416D-8AAC-F50CCF104C5F}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -15395,7 +15395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76731CC6-A32A-4EEB-97BE-B93C0120A9A6}">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
@@ -16948,8 +16948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C6B191-4C83-49B7-BC36-08CF5E485DAD}">
   <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16960,7 +16960,7 @@
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>1011</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="243" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
       <c r="B27" s="51" t="s">
         <v>56</v>
@@ -17776,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="281.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A64" s="50"/>
       <c r="B64" s="51" t="s">
         <v>56</v>
@@ -17809,7 +17809,7 @@
       <c r="D66" s="50"/>
       <c r="E66" s="50"/>
     </row>
-    <row r="67" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A67" s="50" t="s">
         <v>1038</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="217.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="179.25" x14ac:dyDescent="0.25">
       <c r="B90" s="51" t="s">
         <v>56</v>
       </c>
@@ -18555,7 +18555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="319.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="268.5" x14ac:dyDescent="0.25">
       <c r="A127" s="50"/>
       <c r="B127" s="51" t="s">
         <v>56</v>
@@ -19381,15 +19381,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FB2D8C-AEF4-487D-A299-132778AFFDA6}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD91"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="29" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="77.140625" style="29" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="29" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="29" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="29"/>
@@ -20433,7 +20433,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/matlab_attempt/Excel problems/Loops questions.xlsx
+++ b/matlab_attempt/Excel problems/Loops questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0154D0EE-1A69-457C-9C28-9563DD0DA0A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6674C72-6983-487A-9284-2791C4867231}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8625" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8625" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CG3.1.2" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,15 @@
     <sheet name="CG3.5.2" sheetId="15" r:id="rId17"/>
     <sheet name="Unassigned" sheetId="16" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -19381,8 +19386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FB2D8C-AEF4-487D-A299-132778AFFDA6}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19395,7 +19400,7 @@
     <col min="6" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>203</v>
       </c>
@@ -19594,7 +19599,7 @@
       </c>
       <c r="D18" s="40"/>
     </row>
-    <row r="19" spans="1:5" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
         <v>56</v>
       </c>
@@ -27870,8 +27875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D655CF-E50A-4783-95D4-DD7DAD500FDC}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/matlab_attempt/Excel problems/Loops questions.xlsx
+++ b/matlab_attempt/Excel problems/Loops questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1E83E9-6BD5-42EB-88F4-812711611F55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1088B538-D50F-4FAA-BA68-F397A06AE68F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8625" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8625" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CG3.1.2" sheetId="1" r:id="rId1"/>
@@ -4902,7 +4902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -13834,8 +13834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198F0933-8C52-416D-8AAC-F50CCF104C5F}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14514,7 +14514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76731CC6-A32A-4EEB-97BE-B93C0120A9A6}">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
@@ -26968,7 +26968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D655CF-E50A-4783-95D4-DD7DAD500FDC}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -27858,7 +27858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF9DCE0-4461-48A8-82B6-BFC94652AD31}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
